--- a/DataSets_External/EMOutput/Predictive Models_ExcludedCust.xlsx
+++ b/DataSets_External/EMOutput/Predictive Models_ExcludedCust.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Predictive Models_ExcludedCust" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Predictive_Models_ExcludedCust">Predictive Models_ExcludedCust!$A$1:$A$71</definedName>
+    <definedName name="Predictive_Models_ExcludedCust">Predictive Models_ExcludedCust!$A$1:$A$396</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -106,352 +106,1977 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1010</v>
+        <v>1022668755</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1441</v>
+        <v>1022668814</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1582</v>
+        <v>1022668902</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1666</v>
+        <v>1022668913</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1744</v>
+        <v>1022668921</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1796</v>
+        <v>1022668970</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2126</v>
+        <v>1022669019</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2178</v>
+        <v>1022669022</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2198</v>
+        <v>1022669039</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2597</v>
+        <v>1022669042</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2746</v>
+        <v>1022669050</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3014</v>
+        <v>1022669103</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3028</v>
+        <v>1022669108</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3086</v>
+        <v>1022669134</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3142</v>
+        <v>1022669153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3189</v>
+        <v>1022669189</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3212</v>
+        <v>1022669212</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3315</v>
+        <v>1022669221</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3649</v>
+        <v>1022669262</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3820</v>
+        <v>1022669301</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3932</v>
+        <v>1022669306</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4039</v>
+        <v>1022669339</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4047</v>
+        <v>1022669366</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4099</v>
+        <v>1022669377</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4254</v>
+        <v>1022669406</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4479</v>
+        <v>1022669418</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4535</v>
+        <v>1022669422</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4570</v>
+        <v>1022669454</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4613</v>
+        <v>1022669517</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4751</v>
+        <v>1022669542</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4824</v>
+        <v>1022669550</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5148</v>
+        <v>1022669564</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5345</v>
+        <v>1022669658</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5405</v>
+        <v>1022669668</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5476</v>
+        <v>1022669745</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5623</v>
+        <v>1022669753</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5766</v>
+        <v>1022669775</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5902</v>
+        <v>1022669841</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5957</v>
+        <v>1022669887</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6025</v>
+        <v>1022669905</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6184</v>
+        <v>1022669906</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6280</v>
+        <v>1022669998</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6406</v>
+        <v>1022670014</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6411</v>
+        <v>1022670030</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6449</v>
+        <v>1022670094</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6469</v>
+        <v>1022670115</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6915</v>
+        <v>1022670119</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6969</v>
+        <v>1022670122</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7050</v>
+        <v>1022670128</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7188</v>
+        <v>1022670148</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7258</v>
+        <v>1022670149</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7865</v>
+        <v>1022670223</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7884</v>
+        <v>1022670252</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>8092</v>
+        <v>1022670324</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>8198</v>
+        <v>1022670352</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8275</v>
+        <v>1022670372</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8365</v>
+        <v>1022670382</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>8393</v>
+        <v>1022670386</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>8426</v>
+        <v>1022670440</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>9141</v>
+        <v>1022670525</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>9467</v>
+        <v>1022670527</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9494</v>
+        <v>1022670557</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>9523</v>
+        <v>1022670591</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>9719</v>
+        <v>1022670623</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>9733</v>
+        <v>1022670703</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10037</v>
+        <v>1022670765</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10399</v>
+        <v>1022670876</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10629</v>
+        <v>1022670878</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10925</v>
+        <v>1022670898</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10986</v>
+        <v>1022670924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1022670953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1022670967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1022671002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1022671040</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1022671070</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1022671075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1022671078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1022671127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1022671140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1022671152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1022671171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1022671187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1022671204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1022671295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1022671298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1022671392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1022671393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1022671403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1022671416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1022671449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1022671453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1022671492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1022671502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1022671504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1022671519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1022671565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1022671570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1022671609</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1022671617</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1022671630</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1022671644</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1022671679</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1022671699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1022671762</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1022671792</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1022671812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1022671847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1022671861</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1022671870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1022671893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1022671909</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1022671914</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1022671917</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1022671963</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1022672016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1022672020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1022672066</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1022672104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1022672106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1022672123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1022672124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1022672159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1022672241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1022672252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1022672271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1022672308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1022672313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1022672319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1022672351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1022672354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1022672356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1022672376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1022672380</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1022672459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1022672497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1022672521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1022672536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1022672557</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1022672598</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1022672606</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1022672624</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1022672657</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1022672674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1022672687</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1022672795</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1022672799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1022672828</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1022672846</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1022672848</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1022672899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1022672908</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1022672915</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1022672960</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1022672974</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1022673004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1022673021</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1022673035</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1022673052</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1022673102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1022673104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1022673150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1022673173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1022673217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1022673224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1022673277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1022673322</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1022673325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1022673330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1022673342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1022673343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1022673355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1022673418</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1022673433</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1022673436</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1022673437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1022673442</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1022673457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1022673468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1022673576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1022673589</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1022673610</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1022673618</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1022673619</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1022673624</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1022673626</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1022673636</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1022673647</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1022673688</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1022673696</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1022673758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1022673782</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1022673828</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1022673854</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1022673856</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1022673907</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1022673910</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1022673981</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1022673982</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1022673994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1022674002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1022674034</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1022674050</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1022674068</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1022674109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1022674129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1022674133</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1022674161</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1022674188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1022674194</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1022674220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1022674230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1022674235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1022674249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1022674291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1022674333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1022674369</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1022674408</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1022674432</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1022674451</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1022674455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1022674469</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1022674479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1022674486</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1022674489</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1022674508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1022674567</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1022674571</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1022674583</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1022674638</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1022674674</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1022674700</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1022674731</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1022674798</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1022674799</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1022674818</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1022674823</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1022674934</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1022674945</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1022674949</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1022674956</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1022675020</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1022675039</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1022675052</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1022675078</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1022675091</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1022675149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1022675160</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1022675192</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1022675261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1022675267</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1022675289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1022675293</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1022675304</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1022675311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1022675325</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1022675344</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1022675363</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1022675374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1022675380</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1022675397</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1022675400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1022675413</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1022675429</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1022675431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1022675452</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1022675476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1022675478</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1022675498</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1022675519</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1022675559</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1022675616</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1022675623</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1022675626</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1022675627</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1022675643</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1022675649</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1022675681</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1022675754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1022675759</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1022675781</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1022675847</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1022675849</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1022675850</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1022675856</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1022675932</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1022675944</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1022675976</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1022675980</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1022676011</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1022676082</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1022676090</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1022676092</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1022676104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1022676113</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1022676232</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1022676239</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1022676257</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1022676295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1022676312</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1022676325</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1022676346</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1022676354</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1022676416</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1022676430</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1022676439</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1022676459</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1022676475</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1022676479</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1022676496</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1022676504</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1022676564</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1022676580</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1022676586</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1022676593</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1022676597</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1022676640</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1022676651</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1022676652</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1022676677</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1022676813</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1022676836</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1022676847</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1022676854</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1022676860</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1022676885</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1022676897</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1022676907</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1022676910</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1022676921</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1022676969</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1022676996</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1022677007</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1022677015</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1022677104</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1022677131</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1022677178</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1022677191</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1022677193</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1022677271</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1022677275</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1022677304</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1022677350</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1022677377</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1022677379</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1022677387</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1022677394</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1022677423</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1022677504</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1022677516</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1022677538</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1022677556</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1022677559</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1022677606</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1022677628</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1022677654</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1022677660</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1022677684</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1022677706</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1022677718</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1022677757</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1022677807</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1022677821</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1022677822</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1022677831</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1022677849</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1022677868</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1022677873</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1022677895</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1022677921</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1022677922</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1022677936</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1022677942</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1022677960</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1022677976</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1022678039</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1022678108</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1022678124</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1022678260</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1022678313</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1022678314</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1022678371</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1022678402</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1022678412</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1022678423</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1022678431</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1022678441</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1022678453</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1022678456</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1022678505</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1022678506</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1022678531</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1022678634</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1022678686</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1022678731</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1022678741</v>
       </c>
     </row>
   </sheetData>
